--- a/config_1.19/activity_year_config.xlsx
+++ b/config_1.19/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -608,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,8 +665,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,12 +689,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,9 +775,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -801,24 +799,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1097,24 +1089,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U31" sqref="U31"/>
+      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.875" style="4" customWidth="1"/>
     <col min="10" max="10" width="42.5" style="4" customWidth="1"/>
@@ -1126,14 +1118,14 @@
     <col min="16" max="16" width="40.625" style="4" customWidth="1"/>
     <col min="17" max="17" width="29.625" style="4" customWidth="1"/>
     <col min="18" max="18" width="16" style="4" customWidth="1"/>
-    <col min="19" max="19" width="21.875" style="22" customWidth="1"/>
+    <col min="19" max="19" width="21.875" style="21" customWidth="1"/>
     <col min="20" max="20" width="18.375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="19.875" style="22" customWidth="1"/>
+    <col min="21" max="21" width="19.875" style="21" customWidth="1"/>
     <col min="22" max="22" width="34" style="4" customWidth="1"/>
     <col min="23" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22 16384:16384" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22 16384:16384" s="2" customFormat="1" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1144,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1188,20 +1180,20 @@
       <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>18</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22 16384:16384">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1220,7 +1212,7 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="4">
@@ -1244,20 +1236,20 @@
       <c r="R2" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S2" s="22">
+      <c r="S2" s="21">
         <v>1597102200</v>
       </c>
       <c r="T2" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="19">
         <v>1597679999</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22 16384:16384">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1276,7 +1268,7 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="4">
@@ -1300,20 +1292,20 @@
       <c r="R3" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="21">
         <v>1597102200</v>
       </c>
       <c r="T3" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="19">
         <v>1597679999</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22 16384:16384" s="3" customFormat="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1332,7 +1324,7 @@
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="3">
@@ -1359,20 +1351,20 @@
       <c r="R4" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="21">
         <v>1597102200</v>
       </c>
       <c r="T4" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="19">
         <v>1597679999</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22 16384:16384" s="3" customFormat="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1391,7 +1383,7 @@
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="3">
@@ -1418,20 +1410,20 @@
       <c r="R5" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="21">
         <v>1597102200</v>
       </c>
       <c r="T5" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="19">
         <v>1597679999</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22 16384:16384">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1450,7 +1442,7 @@
       <c r="F6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="8">
@@ -1474,13 +1466,13 @@
       <c r="R6" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="20">
         <v>1597707000</v>
       </c>
       <c r="T6" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="20">
         <v>1598284799</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -1488,7 +1480,7 @@
       </c>
       <c r="XFD6" s="3"/>
     </row>
-    <row r="7" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22 16384:16384">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1507,7 +1499,7 @@
       <c r="F7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="8">
@@ -1531,20 +1523,20 @@
       <c r="R7" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="20">
         <v>1597707000</v>
       </c>
       <c r="T7" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="20">
         <v>1598284799</v>
       </c>
       <c r="V7" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22 16384:16384">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1563,7 +1555,7 @@
       <c r="F8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="8">
@@ -1590,20 +1582,20 @@
       <c r="R8" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="20">
         <v>1597707000</v>
       </c>
       <c r="T8" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U8" s="21">
+      <c r="U8" s="20">
         <v>1598284799</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22 16384:16384" s="3" customFormat="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1622,7 +1614,7 @@
       <c r="F9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="8">
@@ -1646,20 +1638,20 @@
       <c r="R9" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="20">
         <v>1598311800</v>
       </c>
       <c r="T9" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="20">
         <v>1598889599</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22 16384:16384" s="3" customFormat="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1678,7 +1670,7 @@
       <c r="F10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="8">
@@ -1702,20 +1694,20 @@
       <c r="R10" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="20">
         <v>1598311800</v>
       </c>
       <c r="T10" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U10" s="21">
+      <c r="U10" s="20">
         <v>1598889599</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22 16384:16384" s="3" customFormat="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1734,7 +1726,7 @@
       <c r="F11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="8">
@@ -1758,24 +1750,24 @@
       <c r="R11" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="20">
         <v>1598311800</v>
       </c>
       <c r="T11" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U11" s="21">
+      <c r="U11" s="20">
         <v>1598889599</v>
       </c>
       <c r="V11" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22 16384:16384" s="3" customFormat="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="27">
         <v>11</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1790,7 +1782,7 @@
       <c r="F12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="15">
@@ -1818,26 +1810,26 @@
         <v>22</v>
       </c>
       <c r="R12" s="16">
-        <v>44201.3125</v>
-      </c>
-      <c r="S12" s="18">
-        <v>1609804800</v>
+        <v>44215.3125</v>
+      </c>
+      <c r="S12" s="28">
+        <v>1610380800</v>
       </c>
       <c r="T12" s="16">
-        <v>44207.999988425923</v>
-      </c>
-      <c r="U12" s="18">
-        <v>1610380799</v>
+        <v>44221.999988425923</v>
+      </c>
+      <c r="U12" s="28">
+        <v>1611590399</v>
       </c>
       <c r="V12" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22 16384:16384" s="3" customFormat="1">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="11">
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1852,7 +1844,7 @@
       <c r="F13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="8">
@@ -1873,27 +1865,27 @@
       <c r="Q13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="7">
         <v>44103.3125</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="20">
         <v>1601335800</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="7">
         <v>44109.999988425923</v>
       </c>
-      <c r="U13" s="21">
+      <c r="U13" s="20">
         <v>1601913599</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22 16384:16384" s="3" customFormat="1">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="11">
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1908,7 +1900,7 @@
       <c r="F14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="8">
@@ -1929,27 +1921,27 @@
       <c r="Q14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="7">
         <v>44103.3125</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="20">
         <v>1601335800</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="7">
         <v>44109.999988425923</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="20">
         <v>1601913599</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22 16384:16384" s="3" customFormat="1">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="11">
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1961,7 +1953,7 @@
       <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="8">
@@ -1982,23 +1974,23 @@
       <c r="Q15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="7">
         <v>44103.3125</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="20">
         <v>1601335800</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="7">
         <v>44109.999988425923</v>
       </c>
-      <c r="U15" s="21">
+      <c r="U15" s="20">
         <v>1601913599</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:22 16384:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22 16384:16384" s="3" customFormat="1" ht="16.5">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2017,7 +2009,7 @@
       <c r="F16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="8">
@@ -2041,20 +2033,20 @@
       <c r="R16" s="7">
         <v>44138.3125</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="19">
         <v>1604359800</v>
       </c>
       <c r="T16" s="7">
         <v>44144.999988425923</v>
       </c>
-      <c r="U16" s="20">
+      <c r="U16" s="19">
         <v>1604937599</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="3" customFormat="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2073,7 +2065,7 @@
       <c r="F17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="3">
@@ -2100,20 +2092,20 @@
       <c r="R17" s="7">
         <v>44138.3125</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="19">
         <v>1604359800</v>
       </c>
       <c r="T17" s="7">
         <v>44144.999988425923</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="19">
         <v>1604937599</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2132,7 +2124,7 @@
       <c r="F18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>104</v>
       </c>
       <c r="H18" s="8">
@@ -2156,17 +2148,17 @@
       <c r="R18" s="7">
         <v>44152.3125</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="20">
         <v>1606176000</v>
       </c>
       <c r="T18" s="7">
         <v>44159.999988425923</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2185,7 +2177,7 @@
       <c r="F19" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="8">
@@ -2209,17 +2201,17 @@
       <c r="R19" s="7">
         <v>44152.3125</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="20">
         <v>1606176000</v>
       </c>
       <c r="T19" s="7">
         <v>44159.999988425923</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" s="3" customFormat="1">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2238,7 +2230,7 @@
       <c r="F20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="8">
@@ -2262,17 +2254,17 @@
       <c r="R20" s="7">
         <v>44173.333333333336</v>
       </c>
-      <c r="S20" s="21">
+      <c r="S20" s="20">
         <v>1607385600</v>
       </c>
       <c r="T20" s="7">
         <v>44179.999988425923</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" s="3" customFormat="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2291,7 +2283,7 @@
       <c r="F21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="3">
@@ -2315,21 +2307,21 @@
       <c r="R21" s="7">
         <v>44173.333333333336</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21" s="20">
         <v>1607385600</v>
       </c>
       <c r="T21" s="7">
         <v>44179.999988425923</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="27">
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -2344,7 +2336,7 @@
       <c r="F22" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H22" s="15">
@@ -2370,24 +2362,24 @@
         <v>49</v>
       </c>
       <c r="R22" s="16">
-        <v>44201.3125</v>
-      </c>
-      <c r="S22" s="18">
-        <v>1609804800</v>
+        <v>44215.3125</v>
+      </c>
+      <c r="S22" s="28">
+        <v>1610380800</v>
       </c>
       <c r="T22" s="16">
-        <v>44207.999988425923</v>
-      </c>
-      <c r="U22" s="18">
-        <v>1610380799</v>
+        <v>44221.999988425923</v>
+      </c>
+      <c r="U22" s="28">
+        <v>1611590399</v>
       </c>
       <c r="V22" s="14"/>
     </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="27">
         <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -2402,7 +2394,7 @@
       <c r="F23" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="14">
@@ -2428,20 +2420,20 @@
         <v>49</v>
       </c>
       <c r="R23" s="16">
-        <v>44201.3125</v>
-      </c>
-      <c r="S23" s="18">
-        <v>1609804800</v>
+        <v>44215.3125</v>
+      </c>
+      <c r="S23" s="28">
+        <v>1610380800</v>
       </c>
       <c r="T23" s="16">
-        <v>44207.999988425923</v>
-      </c>
-      <c r="U23" s="18">
-        <v>1610380799</v>
+        <v>44221.999988425923</v>
+      </c>
+      <c r="U23" s="28">
+        <v>1611590399</v>
       </c>
       <c r="V23" s="14"/>
     </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2460,7 +2452,7 @@
       <c r="F24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="8">
@@ -2494,282 +2486,290 @@
         <v>1608566399</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" s="3" customFormat="1">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="11">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
         <v>3</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="15">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="s">
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14">
-        <v>1</v>
-      </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15" t="s">
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="Q25" s="14" t="s">
+      <c r="Q25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R25" s="16">
+      <c r="R25" s="7">
         <v>44201.3125</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S25" s="26">
         <v>1609804800</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="7">
         <v>44207.999988425923</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U25" s="26">
         <v>1610380799</v>
       </c>
-      <c r="V25" s="15" t="s">
+      <c r="V25" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+    <row r="26" spans="1:22" s="3" customFormat="1">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="11">
         <v>25</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="29">
-        <v>0</v>
-      </c>
-      <c r="E26" s="29">
-        <v>1</v>
-      </c>
-      <c r="F26" s="27" t="s">
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="29">
-        <v>1</v>
-      </c>
-      <c r="I26" s="27" t="s">
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N26" s="27">
-        <v>1</v>
-      </c>
-      <c r="P26" s="27" t="s">
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Q26" s="27" t="s">
+      <c r="Q26" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="R26" s="33">
+      <c r="R26" s="7">
         <v>44208.3125</v>
       </c>
-      <c r="S26" s="31">
+      <c r="S26" s="19">
         <v>1610409600</v>
       </c>
-      <c r="T26" s="33">
+      <c r="T26" s="7">
         <v>44214.999988425923</v>
       </c>
-      <c r="U26" s="31">
+      <c r="U26" s="19">
         <v>1610985599</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+    <row r="27" spans="1:22" s="3" customFormat="1">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="11">
         <v>26</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="29">
-        <v>0</v>
-      </c>
-      <c r="E27" s="29">
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
         <v>2</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="29">
-        <v>1</v>
-      </c>
-      <c r="I27" s="27" t="s">
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N27" s="27">
-        <v>1</v>
-      </c>
-      <c r="P27" s="27" t="s">
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Q27" s="27" t="s">
+      <c r="Q27" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="R27" s="33">
+      <c r="R27" s="7">
         <v>44208.3125</v>
       </c>
-      <c r="S27" s="31">
+      <c r="S27" s="19">
         <v>1610409600</v>
       </c>
-      <c r="T27" s="33">
+      <c r="T27" s="7">
         <v>44214.999988425923</v>
       </c>
-      <c r="U27" s="31">
+      <c r="U27" s="19">
         <v>1610985599</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+    <row r="28" spans="1:22" s="3" customFormat="1">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="11">
         <v>27</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="29">
-        <v>0</v>
-      </c>
-      <c r="E28" s="29">
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
         <v>3</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H28" s="29">
-        <v>1</v>
-      </c>
-      <c r="I28" s="27" t="s">
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N28" s="27">
-        <v>1</v>
-      </c>
-      <c r="P28" s="27" t="s">
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="Q28" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="R28" s="33">
+      <c r="R28" s="7">
         <v>44208.3125</v>
       </c>
-      <c r="S28" s="32">
+      <c r="S28" s="26">
         <v>1610409600</v>
       </c>
-      <c r="T28" s="33">
+      <c r="T28" s="7">
         <v>44214.999988425923</v>
       </c>
-      <c r="U28" s="31">
+      <c r="U28" s="19">
         <v>1610985599</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
+    <row r="29" spans="1:22" s="3" customFormat="1">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="11">
         <v>28</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="29">
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
         <v>4</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="27" t="s">
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="N29" s="27">
-        <v>1</v>
-      </c>
-      <c r="P29" s="27" t="s">
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q29" s="27" t="s">
+      <c r="Q29" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="R29" s="33">
+      <c r="R29" s="7">
         <v>44208.3125</v>
       </c>
-      <c r="S29" s="32">
+      <c r="S29" s="26">
         <v>1610409600</v>
       </c>
-      <c r="T29" s="33">
+      <c r="T29" s="7">
         <v>44214.999988425923</v>
       </c>
-      <c r="U29" s="31">
+      <c r="U29" s="19">
         <v>1610985599</v>
       </c>
+    </row>
+    <row r="30" spans="1:22" s="3" customFormat="1" ht="17.25">
+      <c r="B30" s="11"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="8"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_1.19/activity_year_config.xlsx
+++ b/config_1.19/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="153">
   <si>
     <t>id|行号</t>
   </si>
@@ -560,10 +560,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>“act_039_ty_by_hhl”,"panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>act_039_jzsjb</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -601,6 +597,21 @@
   </si>
   <si>
     <t>actp_own_task_p_041_xyxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_043_khfl_config</t>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_043_khfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_ty_by_hhl","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,13 +676,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft Yahei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -724,7 +728,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,9 +809,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1092,13 +1093,13 @@
   <dimension ref="A1:XFD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="5" bestFit="1" customWidth="1"/>
@@ -1125,7 +1126,7 @@
     <col min="23" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22 16384:16384" s="2" customFormat="1" ht="28.5">
+    <row r="1" spans="1:22 16384:16384" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22 16384:16384">
+    <row r="2" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:22 16384:16384">
+    <row r="3" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:22 16384:16384" s="3" customFormat="1">
+    <row r="4" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:22 16384:16384" s="3" customFormat="1">
+    <row r="5" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:22 16384:16384">
+    <row r="6" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1480,7 +1481,7 @@
       </c>
       <c r="XFD6" s="3"/>
     </row>
-    <row r="7" spans="1:22 16384:16384">
+    <row r="7" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:22 16384:16384">
+    <row r="8" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:22 16384:16384" s="3" customFormat="1">
+    <row r="9" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:22 16384:16384" s="3" customFormat="1">
+    <row r="10" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:22 16384:16384" s="3" customFormat="1">
+    <row r="11" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:22 16384:16384" s="3" customFormat="1">
+    <row r="12" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:22 16384:16384" s="3" customFormat="1">
+    <row r="13" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:22 16384:16384" s="3" customFormat="1">
+    <row r="14" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:22 16384:16384" s="3" customFormat="1">
+    <row r="15" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:22 16384:16384" s="3" customFormat="1" ht="16.5">
+    <row r="16" spans="1:22 16384:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="3" customFormat="1">
+    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5">
+    <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" ht="16.5">
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2211,7 +2212,7 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="3" customFormat="1">
+    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="3" customFormat="1">
+    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2317,65 +2318,60 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5">
+    <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="11">
         <v>21</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14">
-        <v>1</v>
-      </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14" t="s">
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="16">
+      <c r="R22" s="7">
         <v>44215.3125</v>
       </c>
-      <c r="S22" s="28">
+      <c r="S22" s="29">
         <v>1610380800</v>
       </c>
-      <c r="T22" s="16">
+      <c r="T22" s="7">
         <v>44221.999988425923</v>
       </c>
-      <c r="U22" s="28">
+      <c r="U22" s="29">
         <v>1611590399</v>
       </c>
-      <c r="V22" s="14"/>
-    </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" ht="16.5">
+    </row>
+    <row r="23" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2433,7 +2429,7 @@
       </c>
       <c r="V23" s="14"/>
     </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" ht="16.5">
+    <row r="24" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2486,7 +2482,7 @@
         <v>1608566399</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="3" customFormat="1">
+    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2542,63 +2538,68 @@
         <v>1610380799</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" s="3" customFormat="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="27">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="R26" s="7">
-        <v>44208.3125</v>
-      </c>
-      <c r="S26" s="19">
-        <v>1610409600</v>
-      </c>
-      <c r="T26" s="7">
-        <v>44214.999988425923</v>
-      </c>
-      <c r="U26" s="19">
-        <v>1610985599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" s="3" customFormat="1">
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14">
+        <v>1</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="R26" s="16">
+        <v>44215.3125</v>
+      </c>
+      <c r="S26" s="28">
+        <v>1610380800</v>
+      </c>
+      <c r="T26" s="16">
+        <v>44221.999988425923</v>
+      </c>
+      <c r="U26" s="28">
+        <v>1611590399</v>
+      </c>
+      <c r="V26" s="14"/>
+    </row>
+    <row r="27" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>135</v>
@@ -2633,10 +2634,10 @@
         <v>1</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R27" s="7">
         <v>44208.3125</v>
@@ -2651,7 +2652,7 @@
         <v>1610985599</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="3" customFormat="1">
+    <row r="28" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>135</v>
@@ -2686,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R28" s="7">
         <v>44208.3125</v>
@@ -2704,7 +2705,7 @@
         <v>1610985599</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="3" customFormat="1">
+    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2742,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R29" s="7">
         <v>44208.3125</v>
@@ -2760,16 +2761,64 @@
         <v>1610985599</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" ht="17.25">
-      <c r="B30" s="11"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="8"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="30"/>
+    <row r="30" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="27">
+        <v>29</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>4</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14">
+        <v>1</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="16">
+        <v>44215.3125</v>
+      </c>
+      <c r="S30" s="28">
+        <v>1610380800</v>
+      </c>
+      <c r="T30" s="16">
+        <v>44221.999988425923</v>
+      </c>
+      <c r="U30" s="28">
+        <v>1611590399</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_1.19/activity_year_config.xlsx
+++ b/config_1.19/activity_year_config.xlsx
@@ -15,14 +15,14 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="157">
   <si>
     <t>id|行号</t>
   </si>
@@ -612,6 +612,22 @@
   </si>
   <si>
     <t>"act_039_ty_by_hhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>|活动模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换活动模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落物排行榜模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利模板</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +744,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,7 +822,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,13 +1105,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD30"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1104,29 +1119,30 @@
     <col min="1" max="1" width="10.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="42.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="43.875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="21.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.75" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="18.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="29.625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16" style="4" customWidth="1"/>
-    <col min="19" max="19" width="21.875" style="21" customWidth="1"/>
-    <col min="20" max="20" width="18.375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="19.875" style="21" customWidth="1"/>
-    <col min="22" max="22" width="34" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="4"/>
+    <col min="4" max="4" width="18.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="42.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="43.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="21.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="18.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="29.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="16" style="4" customWidth="1"/>
+    <col min="20" max="20" width="21.875" style="21" customWidth="1"/>
+    <col min="21" max="21" width="18.375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="19.875" style="21" customWidth="1"/>
+    <col min="23" max="23" width="34" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22 16384:16384" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,64 +1153,67 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1204,53 +1223,53 @@
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
       <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="7">
+      <c r="S2" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S2" s="21">
+      <c r="T2" s="21">
         <v>1597102200</v>
       </c>
-      <c r="T2" s="7">
+      <c r="U2" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U2" s="19">
+      <c r="V2" s="19">
         <v>1597679999</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1260,53 +1279,53 @@
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
       <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="7">
+      <c r="S3" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S3" s="21">
+      <c r="T3" s="21">
         <v>1597102200</v>
       </c>
-      <c r="T3" s="7">
+      <c r="U3" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U3" s="19">
+      <c r="V3" s="19">
         <v>1597679999</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1316,56 +1335,56 @@
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
       <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="H4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="7">
+      <c r="S4" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S4" s="21">
+      <c r="T4" s="21">
         <v>1597102200</v>
       </c>
-      <c r="T4" s="7">
+      <c r="U4" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U4" s="19">
+      <c r="V4" s="19">
         <v>1597679999</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1375,56 +1394,56 @@
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
       <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="7">
+      <c r="S5" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S5" s="21">
+      <c r="T5" s="21">
         <v>1597102200</v>
       </c>
-      <c r="T5" s="7">
+      <c r="U5" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U5" s="19">
+      <c r="V5" s="19">
         <v>1597679999</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1434,54 +1453,54 @@
       <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8" t="s">
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S6" s="20">
+      <c r="T6" s="20">
         <v>1597707000</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U6" s="20">
+      <c r="V6" s="20">
         <v>1598284799</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="W6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="XFD6" s="3"/>
-    </row>
-    <row r="7" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1491,53 +1510,54 @@
       <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8" t="s">
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="9">
+      <c r="S7" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S7" s="20">
+      <c r="T7" s="20">
         <v>1597707000</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U7" s="20">
+      <c r="V7" s="20">
         <v>1598284799</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1547,56 +1567,57 @@
       <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <v>3</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8" t="s">
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="9">
+      <c r="S8" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S8" s="20">
+      <c r="T8" s="20">
         <v>1597707000</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U8" s="20">
+      <c r="V8" s="20">
         <v>1598284799</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="W8" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1606,53 +1627,54 @@
       <c r="C9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8" t="s">
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S9" s="20">
+      <c r="T9" s="20">
         <v>1598311800</v>
       </c>
-      <c r="T9" s="7">
+      <c r="U9" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U9" s="20">
+      <c r="V9" s="20">
         <v>1598889599</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="W9" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1662,53 +1684,54 @@
       <c r="C10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="H10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="8" t="s">
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="7">
+      <c r="S10" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S10" s="20">
+      <c r="T10" s="20">
         <v>1598311800</v>
       </c>
-      <c r="T10" s="7">
+      <c r="U10" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U10" s="20">
+      <c r="V10" s="20">
         <v>1598889599</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="W10" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1718,115 +1741,114 @@
       <c r="C11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
         <v>3</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="8" t="s">
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R11" s="7">
+      <c r="S11" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S11" s="20">
+      <c r="T11" s="20">
         <v>1598311800</v>
       </c>
-      <c r="T11" s="7">
+      <c r="U11" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U11" s="20">
+      <c r="V11" s="20">
         <v>1598889599</v>
       </c>
-      <c r="V11" s="8" t="s">
+      <c r="W11" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
         <v>3</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="K12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14">
-        <v>1</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15" t="s">
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="R12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="16">
+      <c r="S12" s="7">
         <v>44215.3125</v>
       </c>
-      <c r="S12" s="28">
+      <c r="T12" s="28">
         <v>1610380800</v>
       </c>
-      <c r="T12" s="16">
+      <c r="U12" s="7">
         <v>44221.999988425923</v>
       </c>
-      <c r="U12" s="28">
+      <c r="V12" s="28">
         <v>1611590399</v>
       </c>
-      <c r="V12" s="15" t="s">
+      <c r="W12" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1836,53 +1858,54 @@
       <c r="C13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="H13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8" t="s">
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="7">
+      <c r="S13" s="7">
         <v>44103.3125</v>
       </c>
-      <c r="S13" s="20">
+      <c r="T13" s="20">
         <v>1601335800</v>
       </c>
-      <c r="T13" s="7">
+      <c r="U13" s="7">
         <v>44109.999988425923</v>
       </c>
-      <c r="U13" s="20">
+      <c r="V13" s="20">
         <v>1601913599</v>
       </c>
-      <c r="V13" s="8" t="s">
+      <c r="W13" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1892,53 +1915,54 @@
       <c r="C14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
         <v>2</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="H14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="8" t="s">
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="7">
+      <c r="S14" s="7">
         <v>44103.3125</v>
       </c>
-      <c r="S14" s="20">
+      <c r="T14" s="20">
         <v>1601335800</v>
       </c>
-      <c r="T14" s="7">
+      <c r="U14" s="7">
         <v>44109.999988425923</v>
       </c>
-      <c r="U14" s="20">
+      <c r="V14" s="20">
         <v>1601913599</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1948,50 +1972,51 @@
       <c r="C15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8" t="s">
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R15" s="7">
+      <c r="S15" s="7">
         <v>44103.3125</v>
       </c>
-      <c r="S15" s="20">
+      <c r="T15" s="20">
         <v>1601335800</v>
       </c>
-      <c r="T15" s="7">
+      <c r="U15" s="7">
         <v>44109.999988425923</v>
       </c>
-      <c r="U15" s="20">
+      <c r="V15" s="20">
         <v>1601913599</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:22 16384:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2001,53 +2026,54 @@
       <c r="C16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R16" s="7">
+      <c r="S16" s="7">
         <v>44138.3125</v>
       </c>
-      <c r="S16" s="19">
+      <c r="T16" s="19">
         <v>1604359800</v>
       </c>
-      <c r="T16" s="7">
+      <c r="U16" s="7">
         <v>44144.999988425923</v>
       </c>
-      <c r="U16" s="19">
+      <c r="V16" s="19">
         <v>1604937599</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2057,56 +2083,56 @@
       <c r="C17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="H17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R17" s="7">
+      <c r="S17" s="7">
         <v>44138.3125</v>
       </c>
-      <c r="S17" s="19">
+      <c r="T17" s="19">
         <v>1604359800</v>
       </c>
-      <c r="T17" s="7">
+      <c r="U17" s="7">
         <v>44144.999988425923</v>
       </c>
-      <c r="U17" s="19">
+      <c r="V17" s="19">
         <v>1604937599</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2116,50 +2142,51 @@
       <c r="C18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="H18" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3" t="s">
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="7">
+      <c r="S18" s="7">
         <v>44152.3125</v>
       </c>
-      <c r="S18" s="20">
+      <c r="T18" s="20">
         <v>1606176000</v>
       </c>
-      <c r="T18" s="7">
+      <c r="U18" s="7">
         <v>44159.999988425923</v>
       </c>
-      <c r="U18" s="19">
+      <c r="V18" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2169,50 +2196,51 @@
       <c r="C19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="H19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3" t="s">
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="7">
+      <c r="S19" s="7">
         <v>44152.3125</v>
       </c>
-      <c r="S19" s="20">
+      <c r="T19" s="20">
         <v>1606176000</v>
       </c>
-      <c r="T19" s="7">
+      <c r="U19" s="7">
         <v>44159.999988425923</v>
       </c>
-      <c r="U19" s="19">
+      <c r="V19" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2222,50 +2250,51 @@
       <c r="C20" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="H20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3" t="s">
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="7">
+      <c r="S20" s="7">
         <v>44173.333333333336</v>
       </c>
-      <c r="S20" s="20">
+      <c r="T20" s="20">
         <v>1607385600</v>
       </c>
-      <c r="T20" s="7">
+      <c r="U20" s="7">
         <v>44179.999988425923</v>
       </c>
-      <c r="U20" s="19">
+      <c r="V20" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2275,50 +2304,50 @@
       <c r="C21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="3">
-        <v>1</v>
-      </c>
-      <c r="P21" s="3" t="s">
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="7">
+      <c r="S21" s="7">
         <v>44173.333333333336</v>
       </c>
-      <c r="S21" s="20">
+      <c r="T21" s="20">
         <v>1607385600</v>
       </c>
-      <c r="T21" s="7">
+      <c r="U21" s="7">
         <v>44179.999988425923</v>
       </c>
-      <c r="U21" s="19">
+      <c r="V21" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2328,108 +2357,103 @@
       <c r="C22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
       <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="H22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="3">
-        <v>1</v>
-      </c>
-      <c r="P22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="7">
+      <c r="S22" s="7">
         <v>44215.3125</v>
       </c>
-      <c r="S22" s="29">
+      <c r="T22" s="28">
         <v>1610380800</v>
       </c>
-      <c r="T22" s="7">
+      <c r="U22" s="7">
         <v>44221.999988425923</v>
       </c>
-      <c r="U22" s="29">
+      <c r="V22" s="28">
         <v>1611590399</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="11">
         <v>22</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="14">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="G23" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="H23" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="K23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14">
-        <v>1</v>
-      </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14" t="s">
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="R23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="16">
+      <c r="S23" s="7">
         <v>44215.3125</v>
       </c>
-      <c r="S23" s="28">
+      <c r="T23" s="28">
         <v>1610380800</v>
       </c>
-      <c r="T23" s="16">
+      <c r="U23" s="7">
         <v>44221.999988425923</v>
       </c>
-      <c r="U23" s="28">
+      <c r="V23" s="28">
         <v>1611590399</v>
       </c>
-      <c r="V23" s="14"/>
-    </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2439,50 +2463,50 @@
       <c r="C24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="G24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="H24" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3" t="s">
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="R24" s="7">
+      <c r="S24" s="7">
         <v>44180.333333333336</v>
       </c>
-      <c r="S24" s="13">
+      <c r="T24" s="13">
         <v>1607990400</v>
       </c>
-      <c r="T24" s="7">
+      <c r="U24" s="7">
         <v>44190.999988425923</v>
       </c>
-      <c r="U24" s="13">
+      <c r="V24" s="13">
         <v>1608566399</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2492,114 +2516,109 @@
       <c r="C25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
       <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
         <v>3</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="H25" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="P25" s="8" t="s">
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R25" s="7">
+      <c r="S25" s="7">
         <v>44201.3125</v>
       </c>
-      <c r="S25" s="26">
+      <c r="T25" s="26">
         <v>1609804800</v>
       </c>
-      <c r="T25" s="7">
+      <c r="U25" s="7">
         <v>44207.999988425923</v>
       </c>
-      <c r="U25" s="26">
+      <c r="V25" s="26">
         <v>1610380799</v>
       </c>
-      <c r="V25" s="8" t="s">
+      <c r="W25" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="11">
         <v>25</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="15">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>1</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="H26" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="15">
-        <v>1</v>
-      </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="K26" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14">
-        <v>1</v>
-      </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14" t="s">
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Q26" s="14" t="s">
+      <c r="R26" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="R26" s="16">
+      <c r="S26" s="7">
         <v>44215.3125</v>
       </c>
-      <c r="S26" s="28">
+      <c r="T26" s="28">
         <v>1610380800</v>
       </c>
-      <c r="T26" s="16">
+      <c r="U26" s="7">
         <v>44221.999988425923</v>
       </c>
-      <c r="U26" s="28">
+      <c r="V26" s="28">
         <v>1611590399</v>
       </c>
-      <c r="V26" s="14"/>
-    </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2609,50 +2628,50 @@
       <c r="C27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
       <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
         <v>2</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="H27" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="P27" s="3" t="s">
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="R27" s="7">
+      <c r="S27" s="7">
         <v>44208.3125</v>
       </c>
-      <c r="S27" s="19">
+      <c r="T27" s="19">
         <v>1610409600</v>
       </c>
-      <c r="T27" s="7">
+      <c r="U27" s="7">
         <v>44214.999988425923</v>
       </c>
-      <c r="U27" s="19">
+      <c r="V27" s="19">
         <v>1610985599</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2662,50 +2681,50 @@
       <c r="C28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
       <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
         <v>3</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="H28" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N28" s="3">
-        <v>1</v>
-      </c>
-      <c r="P28" s="3" t="s">
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="R28" s="7">
+      <c r="S28" s="7">
         <v>44208.3125</v>
       </c>
-      <c r="S28" s="26">
+      <c r="T28" s="26">
         <v>1610409600</v>
       </c>
-      <c r="T28" s="7">
+      <c r="U28" s="7">
         <v>44214.999988425923</v>
       </c>
-      <c r="U28" s="19">
+      <c r="V28" s="19">
         <v>1610985599</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2715,108 +2734,233 @@
       <c r="C29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
       <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
         <v>4</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="H29" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="N29" s="3">
-        <v>1</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="R29" s="7">
+      <c r="S29" s="7">
         <v>44208.3125</v>
       </c>
-      <c r="S29" s="26">
+      <c r="T29" s="26">
         <v>1610409600</v>
       </c>
-      <c r="T29" s="7">
+      <c r="U29" s="7">
         <v>44214.999988425923</v>
       </c>
-      <c r="U29" s="19">
+      <c r="V29" s="19">
         <v>1610985599</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="27">
-        <v>29</v>
+    <row r="30" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>30</v>
+      </c>
+      <c r="B30" s="11">
+        <v>30</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="E30" s="15">
-        <v>4</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="15">
-        <v>1</v>
-      </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="15">
+        <v>1</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="K30" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="14">
-        <v>1</v>
-      </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14" t="s">
+      <c r="N30" s="14"/>
+      <c r="O30" s="14">
+        <v>1</v>
+      </c>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="S30" s="16">
+        <v>44215.3125</v>
+      </c>
+      <c r="T30" s="27">
+        <v>1611014400</v>
+      </c>
+      <c r="U30" s="16">
+        <v>44221.999988425923</v>
+      </c>
+      <c r="V30" s="27">
+        <v>1611590399</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>31</v>
+      </c>
+      <c r="B31" s="11">
+        <v>31</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
+        <v>2</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14">
+        <v>1</v>
+      </c>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" s="16">
+        <v>44215.3125</v>
+      </c>
+      <c r="T31" s="27">
+        <v>1611014400</v>
+      </c>
+      <c r="U31" s="16">
+        <v>44221.999988425923</v>
+      </c>
+      <c r="V31" s="27">
+        <v>1611590399</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>32</v>
+      </c>
+      <c r="B32" s="11">
+        <v>32</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>3</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14">
+        <v>1</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="R32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="16">
+      <c r="S32" s="16">
         <v>44215.3125</v>
       </c>
-      <c r="S30" s="28">
-        <v>1610380800</v>
-      </c>
-      <c r="T30" s="16">
+      <c r="T32" s="27">
+        <v>1611014400</v>
+      </c>
+      <c r="U32" s="16">
         <v>44221.999988425923</v>
       </c>
-      <c r="U30" s="28">
+      <c r="V32" s="27">
         <v>1611590399</v>
       </c>
     </row>

--- a/config_1.19/activity_year_config.xlsx
+++ b/config_1.19/activity_year_config.xlsx
@@ -1111,7 +1111,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2782,10 +2782,10 @@
     </row>
     <row r="30" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>128</v>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="31" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>122</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="32" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>149</v>

--- a/config_1.19/activity_year_config.xlsx
+++ b/config_1.19/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
   <si>
     <t>id|行号</t>
   </si>
@@ -628,6 +628,10 @@
   </si>
   <si>
     <t>小游戏福利模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵珠排行榜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1115,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2849,7 +2853,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>155</v>

--- a/config_1.19/activity_year_config.xlsx
+++ b/config_1.19/activity_year_config.xlsx
@@ -1115,7 +1115,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
